--- a/Camping_OM_Resources/dataset2/Camping_authentic_dataset_nospace.xlsx
+++ b/Camping_OM_Resources/dataset2/Camping_authentic_dataset_nospace.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Camping_OM_Resources/dataset2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28535E09-E7E6-DE44-804D-0DB8A1D2E0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F38738C-E744-4B43-A234-247247C7F246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{F2EE80F2-3D71-2A42-A0FA-FCD8487160A1}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16360" xr2:uid="{F2EE80F2-3D71-2A42-A0FA-FCD8487160A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,10 +213,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -242,8 +256,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203999DC-4DF8-354D-893F-C71448A59A7E}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -579,242 +595,242 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>56</v>
       </c>
     </row>
